--- a/belsokonyveles/src/main/resources/bookShelf.xlsx
+++ b/belsokonyveles/src/main/resources/bookShelf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Fizetési határidő</t>
   </si>
@@ -38,46 +38,25 @@
     <t>Kiadás jellege</t>
   </si>
   <si>
-    <t>2009-03-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2019-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>VODAFONE</t>
-  </si>
-  <si>
-    <t>KK7654</t>
-  </si>
-  <si>
-    <t>PULT</t>
-  </si>
-  <si>
-    <t>UTALÁS</t>
-  </si>
-  <si>
-    <t>2018-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2016-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>TELEKOM</t>
-  </si>
-  <si>
-    <t>1990-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>KONYHA</t>
-  </si>
-  <si>
-    <t>2014-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2011-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>VETUSZ KFT.</t>
+    <t>2018-03-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2009-04-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>OSAUDV</t>
+  </si>
+  <si>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>OAUDGS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KÉSZPÉNZ</t>
   </si>
 </sst>
 </file>
@@ -159,7 +138,7 @@
   <cols>
     <col min="1" max="1" width="23.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.43359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.1171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.40234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="17.25390625" customWidth="true" bestFit="true"/>
@@ -207,134 +186,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>1000.0</v>
+        <v>45678.0</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" t="s" s="1">
+        <v>13</v>
+      </c>
       <c r="H3" t="s" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E5" t="n" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" t="s" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" t="s" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n" s="2">
-        <v>1000.0</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
